--- a/common-util/src/test/resources/挖掘机_20170524.xlsx
+++ b/common-util/src/test/resources/挖掘机_20170524.xlsx
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -983,7 +983,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O142" sqref="O142"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11665,7 +11665,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G20" si="1">B2-C2</f>
+        <f t="shared" ref="G2" si="1">B2-C2</f>
         <v>1984</v>
       </c>
       <c r="H2" s="3">

--- a/common-util/src/test/resources/挖掘机_20170524.xlsx
+++ b/common-util/src/test/resources/挖掘机_20170524.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">四化建!$A$1:$H$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'四化建 (2)'!$A$1:$H$42</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1116,23 +1116,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1168,23 +1151,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1363,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6121,7 +6087,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7099,6 +7065,10 @@
       <c r="H41" s="3">
         <v>7000</v>
       </c>
+      <c r="J41" s="1">
+        <f>K38-K36</f>
+        <v>12439</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -7136,7 +7106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
